--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Mixed Connective Tissue Disease.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Mixed Connective Tissue Disease.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom in patients with Type 2 Achalasia, which is often associated with CREST syndrome.</t>
+          <t>This is a hallmark symptom of Type 2 Achalasia, which is part of CREST syndrome with esophageal involvement.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Joint pain or arthritis</t>
+          <t>Arthralgia with swollen hands</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Joint pain is a more common symptom in Mixed Connective Tissue Disease compared to CREST syndrome.</t>
+          <t>Common in Mixed Connective Tissue Disease and less specific to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Skin changes (such as sclerodactyly or telangiectasia)</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome and help distinguish it from Mixed Connective Tissue Disease.</t>
+          <t>Common in CREST syndrome and may precede other symptoms, less specific to Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Myositis (muscle inflammation)</t>
+          <t>Myositis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Myositis is a hallmark of Mixed Connective Tissue Disease and is not a feature of CREST syndrome.</t>
+          <t>Muscle inflammation is more indicative of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is frequently seen in CREST syndrome and less commonly in Mixed Connective Tissue Disease.</t>
+          <t>Calcinosis is more characteristic of CREST syndrome than Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pulmonary involvement (such as interstitial lung disease)</t>
+          <t>Pulmonary hypertension</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Pulmonary complications are more prevalent in Mixed Connective Tissue Disease than in CREST syndrome.</t>
+          <t>While it can occur in both, it is more commonly associated with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux is often reported in patients with Type 2 Achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>Telangiectasia is a key feature of CREST syndrome and less common in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fatigue and malaise</t>
+          <t>Rash</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Generalized fatigue is more commonly reported in Mixed Connective Tissue Disease than in CREST syndrome.</t>
+          <t>Skin rashes are more frequently associated with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis (calcium deposits in the skin)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis is a specific finding in CREST syndrome that is not typically present in Mixed Connective Tissue Disease.</t>
+          <t>Sclerodactyly is a specific feature of CREST syndrome, not typically seen in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Serological markers (such as anti-U1 RNP antibodies)</t>
+          <t>Fever</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The presence of specific autoantibodies is more indicative of Mixed Connective Tissue Disease than CREST syndrome.</t>
+          <t>Fever is more commonly reported in Mixed Connective Tissue Disease than in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of esophageal dilation or surgery</t>
+          <t>History of esophageal dilation procedures</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome and Type 2 Achalasia often have a history of esophageal dilation or surgical interventions due to dysphagia.</t>
+          <t>Esophageal dilation is often required in Type 2 Achalasia due to esophageal motility issues.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of arthritis or joint pain</t>
+          <t>History of myositis</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mixed Connective Tissue Disease often presents with significant arthralgia or arthritis, which is less common in CREST syndrome.</t>
+          <t>Myositis is more commonly associated with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
@@ -640,39 +640,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CREST syndrome is a subset of scleroderma, and a prior diagnosis of scleroderma strongly supports this diagnosis.</t>
+          <t>Scleroderma is a component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Use of corticosteroids</t>
+          <t>Previous diagnosis of systemic lupus erythematosus (SLE)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Corticosteroids are commonly used in the management of Mixed Connective Tissue Disease, whereas they are less frequently used in CREST syndrome.</t>
+          <t>SLE is often seen in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of proton pump inhibitors (PPIs)</t>
+          <t>Use of calcium channel blockers</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with Type 2 Achalasia may be treated with PPIs to manage reflux symptoms, which is less common in Mixed Connective Tissue Disease.</t>
+          <t>Calcium channel blockers are sometimes used to manage esophageal motility disorders like achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of myositis</t>
+          <t>Use of corticosteroids</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Myositis is a key feature of Mixed Connective Tissue Disease and is not typically seen in CREST syndrome.</t>
+          <t>Corticosteroids are frequently used to manage inflammation in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
@@ -684,39 +684,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common feature in CREST syndrome, distinguishing it from Mixed Connective Tissue Disease.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previous diagnosis of lupus</t>
+          <t>History of arthritis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A history of systemic lupus erythematosus is more indicative of Mixed Connective Tissue Disease than CREST syndrome.</t>
+          <t>Arthritis is a common feature in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Prior diagnosis of pulmonary hypertension</t>
+          <t>Past medical history of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is more frequently associated with CREST syndrome than with Mixed Connective Tissue Disease.</t>
+          <t>Telangiectasia is a characteristic feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of skin rashes or lesions</t>
+          <t>Previous diagnosis of polymyositis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Skin manifestations are more diverse and pronounced in Mixed Connective Tissue Disease compared to CREST syndrome.</t>
+          <t>Polymyositis is associated with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of autoimmune diseases</t>
+          <t>Family history of CREST syndrome</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of autoimmune diseases is more common in patients with CREST syndrome, indicating a genetic predisposition.</t>
+          <t>A family history of CREST syndrome suggests a genetic predisposition, which is more specific to CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of systemic lupus erythematosus (SLE)</t>
+          <t>Family history of mixed connective tissue disease</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A family history of SLE is more indicative of Mixed Connective Tissue Disease, suggesting a genetic link.</t>
+          <t>A family history of mixed connective tissue disease suggests a genetic predisposition, which is more specific to this condition.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>History of occupational exposure to silica</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Such exposures are more frequently reported in patients with CREST syndrome, potentially linking environmental factors to disease onset.</t>
+          <t>Silica exposure is more commonly associated with scleroderma, which is part of CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of other connective tissue disorders in family</t>
+          <t>Family history of systemic lupus erythematosus</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A family history of various connective tissue disorders is more common in Mixed Connective Tissue Disease, indicating a broader genetic predisposition.</t>
+          <t>Systemic lupus erythematosus is often associated with mixed connective tissue disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of esophageal symptoms or dysphagia</t>
+          <t>Family history of esophageal motility disorders</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome often report esophageal symptoms due to Type 2 Achalasia, which is less common in Mixed Connective Tissue Disease.</t>
+          <t>A family history of esophageal motility disorders is more indicative of Type 2 Achalasia, which is part of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engagement in high-stress occupations</t>
+          <t>Family history of polymyositis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>High-stress occupations may be more associated with Mixed Connective Tissue Disease, potentially influencing disease onset.</t>
+          <t>Polymyositis is a condition that can overlap with mixed connective tissue disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that increase risk of vascular issues</t>
+          <t>Family history of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with CREST syndrome may engage in activities that exacerbate vascular complications, which are characteristic of the syndrome.</t>
+          <t>Raynaud's phenomenon is a key feature of CREST syndrome and its presence in family history supports this diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of smoking</t>
+          <t>Family history of rheumatoid arthritis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Smoking is a risk factor that may be more prevalent in patients with Mixed Connective Tissue Disease, affecting overall health.</t>
+          <t>Rheumatoid arthritis is commonly associated with mixed connective tissue disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon in family members</t>
+          <t>Family history of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a hallmark of CREST syndrome and may be more prevalent in families with a history of the syndrome.</t>
+          <t>Telangiectasia is a component of CREST syndrome, and its presence in family history supports this diagnosis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of other autoimmune diseases in family</t>
+          <t>Family history of Sjögren's syndrome</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A family history of other autoimmune diseases is more common in Mixed Connective Tissue Disease, suggesting a shared genetic background.</t>
+          <t>Sjögren's syndrome is often seen in conjunction with mixed connective tissue disease.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin thickening and sclerodactyly</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are more characteristic of CREST syndrome, indicating skin involvement.</t>
+          <t>Telangiectasia is more commonly associated with CREST syndrome and is a key distinguishing feature.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Arthralgia (joint pain)</t>
+          <t>Swollen hands</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Joint pain is more commonly reported in Mixed Connective Tissue Disease than in CREST syndrome.</t>
+          <t>Swollen hands are more characteristic of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This is a common feature in CREST syndrome, often presenting with color changes in fingers and toes.</t>
+          <t>Calcinosis is a hallmark of CREST syndrome and not typically seen in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Myositis (muscle inflammation)</t>
+          <t>Myositis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Muscle involvement is a hallmark of Mixed Connective Tissue Disease, distinguishing it from CREST syndrome.</t>
+          <t>Muscle inflammation is more commonly associated with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia leads to esophageal motility issues, causing dysphagia, which is more prevalent in CREST syndrome.</t>
+          <t>Sclerodactyly is a specific feature of CREST syndrome, indicating skin thickening and tightening.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Serositis (inflammation of serous tissues)</t>
+          <t>Arthritis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This finding is more indicative of Mixed Connective Tissue Disease, which can involve pleuritis or pericarditis.</t>
+          <t>Joint inflammation is more prevalent in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Raynaud's phenomenon</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>While Raynaud's can occur in both conditions, it is a classic feature of CREST syndrome.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Pulmonary hypertension</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>This is a potential complication of CREST syndrome, whereas it is less common in Mixed Connective Tissue Disease.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Positive anti-U1 RNP antibodies</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These antibodies are more frequently associated with Mixed Connective Tissue Disease than with CREST syndrome.</t>
+          <t>While it can occur in both, it is more frequently severe in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis</t>
+          <t>Esophageal dysmotility</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of calcium deposits in the skin is a specific finding associated with CREST syndrome.</t>
+          <t>Esophageal dysmotility, particularly Type 2 Achalasia, is more specific to CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Rash</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fatigue is a common symptom in Mixed Connective Tissue Disease, often more pronounced than in CREST syndrome.</t>
+          <t>Rashes, particularly those resembling lupus, are more indicative of Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated resting lower esophageal sphincter (LES) pressure</t>
+          <t>Esophageal manometry showing Type 2 Achalasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is often seen in CREST syndrome.</t>
+          <t>Type 2 Achalasia is characterized by panesophageal pressurization, which is specific to achalasia and not seen in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Positive anti-U1 ribonucleoprotein (RNP) antibodies</t>
+          <t>Anti-U1 RNP antibodies</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>These antibodies are more commonly found in Mixed Connective Tissue Disease than in CREST syndrome.</t>
+          <t>Anti-U1 RNP antibodies are highly associated with Mixed Connective Tissue Disease and not with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Barium swallow study demonstrating dilated esophagus with peristaltic contractions</t>
+          <t>Anticentromere antibodies</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>This imaging finding is indicative of Type 2 Achalasia, which is more common in CREST syndrome.</t>
+          <t>Anticentromere antibodies are more commonly associated with CREST syndrome than with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes (e.g., creatine kinase)</t>
+          <t>Elevated creatine kinase (CK) levels</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>This finding is more indicative of Mixed Connective Tissue Disease, particularly if myositis is present.</t>
+          <t>Elevated CK levels are indicative of muscle inflammation, which is more common in Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Positive anti-centromere antibodies</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These antibodies are more frequently associated with CREST syndrome compared to Mixed Connective Tissue Disease.</t>
+          <t>The bird-beak appearance on barium swallow is indicative of achalasia, which is part of CREST syndrome with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Skin biopsy showing interface dermatitis</t>
+          <t>Pulmonary function tests showing restrictive pattern</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This histological finding is more typical of Mixed Connective Tissue Disease than CREST syndrome.</t>
+          <t>A restrictive pattern on pulmonary function tests is more commonly associated with Mixed Connective Tissue Disease due to interstitial lung disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary function tests showing restrictive lung disease</t>
+          <t>High-resolution esophageal manometry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This can occur in CREST syndrome due to pulmonary fibrosis, distinguishing it from Mixed Connective Tissue Disease.</t>
+          <t>This test can confirm the presence of esophageal motility disorders specific to achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint imaging showing erosive changes</t>
+          <t>Positive ANA with speckled pattern</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Erosive arthritis is more characteristic of Mixed Connective Tissue Disease compared to CREST syndrome.</t>
+          <t>A speckled pattern on ANA testing is more commonly associated with Mixed Connective Tissue Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chest X-ray showing interstitial lung disease</t>
+          <t>Esophagogastroduodenoscopy (EGD) showing retained food and saliva</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>This finding is more commonly associated with CREST syndrome, particularly with pulmonary involvement.</t>
+          <t>EGD showing retained food and saliva is more indicative of achalasia due to esophageal motility issues.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Positive anti-Smith antibodies</t>
+          <t>MRI showing myositis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>These antibodies are more specific for systemic lupus erythematosus, which can overlap with Mixed Connective Tissue Disease.</t>
+          <t>MRI findings of myositis are more indicative of Mixed Connective Tissue Disease due to muscle involvement.</t>
         </is>
       </c>
     </row>
